--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1612191.016374697</v>
+        <v>1638591.741441818</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76655.06434893934</v>
+        <v>136451.5775690273</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>42.13981355887269</v>
       </c>
       <c r="F2" t="n">
-        <v>274.0111612120188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>99.37803318259343</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.7109631741135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964032</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>289.5119536303307</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>60.46179076613048</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>265.210178633824</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.75685339834053</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.7210176553111</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.52155958671086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.46513174239241</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>125.4763835556439</v>
       </c>
     </row>
     <row r="15">
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>196.7218456862865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1900,19 +1900,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>264.0756743143456</v>
+        <v>96.02923085409039</v>
       </c>
     </row>
     <row r="18">
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>169.083499160259</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>262.9939535884653</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>69.95103447287302</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>216.5532452926077</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>302.3752772870933</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826972</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>285.7177989858385</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I24" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S24" t="n">
         <v>150.8909729053131</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>40.77616165468338</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>132.1636611719604</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>277.8700864458128</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>244.377213499745</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654457</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826972</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S26" t="n">
         <v>161.3455364069306</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I27" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S27" t="n">
         <v>150.8909729053131</v>
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>39.30597845459216</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>149.0353869925714</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
         <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>78.7342129953542</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826972</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>107.9464172067551</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S30" t="n">
         <v>150.8909729053131</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>118.8487046148354</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>90.93681977071353</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>231.996976824557</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>162.6064360124651</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S33" t="n">
         <v>150.8909729053131</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>69.37250135648397</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>7.475979416918566</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>70.24976816518921</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>91.31852389191391</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S36" t="n">
         <v>150.8909729053131</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>254.3598158159221</v>
+        <v>87.11299471729394</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>90.52652149144765</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826972</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S38" t="n">
         <v>161.3455364069306</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.14948556136164</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S39" t="n">
         <v>150.8909729053131</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.2408097264777</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>94.36491027170531</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>345.9922007645591</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>204.7496483729791</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S42" t="n">
         <v>150.8909729053131</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>67.17598791097606</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.1158076895353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>185.6094893144795</v>
       </c>
       <c r="I44" t="n">
         <v>129.8188433654457</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.6601464048076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896766</v>
       </c>
       <c r="S45" t="n">
         <v>150.8909729053131</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>135.8196952271289</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>72.08289468663293</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1134.473993239633</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="C2" t="n">
-        <v>1134.473993239633</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="D2" t="n">
-        <v>1134.473993239633</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="E2" t="n">
-        <v>748.6857406413885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y2" t="n">
-        <v>1521.073833303755</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1663.420136195577</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C5" t="n">
-        <v>1294.457619255165</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>936.1919206484147</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>936.1919206484147</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4609,10 +4609,10 @@
         <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y5" t="n">
-        <v>2050.019976259699</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4682,7 +4682,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>438.955373861002</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551152</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>353.3247993678817</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>353.3247993678817</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>353.3247993678817</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>346.3792986186782</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,25 +4901,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1268.68094731003</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>739.7958592492726</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>321.8320511474594</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2630.244792055442</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2376.483006693534</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>2045.420119349963</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W11" t="n">
-        <v>2045.420119349963</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X11" t="n">
-        <v>2045.420119349963</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y11" t="n">
-        <v>1655.280787374151</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5141,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338.1849863041093</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="C13" t="n">
-        <v>338.1849863041093</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="D13" t="n">
-        <v>338.1849863041093</v>
+        <v>67.80259561360799</v>
       </c>
       <c r="E13" t="n">
-        <v>190.2718927217162</v>
+        <v>67.80259561360799</v>
       </c>
       <c r="F13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5244,7 +5244,7 @@
         <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>338.1849863041093</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1610.120910258947</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C14" t="n">
-        <v>1241.158393318536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D14" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.295728843236</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>1667.156396867425</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5466,19 +5466,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y16" t="n">
         <v>53.94298182036445</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
         <v>1268.68094731003</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5548,19 +5548,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W17" t="n">
-        <v>1893.689751284806</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X17" t="n">
-        <v>1893.689751284806</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y17" t="n">
-        <v>1626.94664591678</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5679,37 +5679,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.91501986716</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="C20" t="n">
-        <v>962.91501986716</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D20" t="n">
-        <v>962.91501986716</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E20" t="n">
-        <v>962.91501986716</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F20" t="n">
-        <v>551.9291150775525</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
         <v>381.1377017843616</v>
@@ -5752,7 +5752,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V20" t="n">
-        <v>2092.422847177208</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W20" t="n">
-        <v>1739.654191907093</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X20" t="n">
-        <v>1739.654191907093</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y20" t="n">
-        <v>1349.514859931282</v>
+        <v>1571.489602548541</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.9823256406185</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C22" t="n">
-        <v>411.0461427127116</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9295033003758</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E22" t="n">
-        <v>260.9295033003758</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F22" t="n">
-        <v>190.2718927217162</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G22" t="n">
         <v>190.2718927217162</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406185</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406185</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406185</v>
+        <v>509.3883323957195</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1838.505866650337</v>
+        <v>1549.902029290904</v>
       </c>
       <c r="C23" t="n">
-        <v>1469.543349709925</v>
+        <v>1549.902029290904</v>
       </c>
       <c r="D23" t="n">
-        <v>1111.277651103175</v>
+        <v>1191.636330684153</v>
       </c>
       <c r="E23" t="n">
         <v>805.848078085909</v>
@@ -5989,13 +5989,13 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821401</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K23" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L23" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M23" t="n">
         <v>1685.237002375317</v>
@@ -6010,31 +6010,31 @@
         <v>3146.337816775584</v>
       </c>
       <c r="Q23" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S23" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T23" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U23" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V23" t="n">
-        <v>3341.479452221465</v>
+        <v>3052.875614862031</v>
       </c>
       <c r="W23" t="n">
-        <v>2988.71079695135</v>
+        <v>2700.106959591917</v>
       </c>
       <c r="X23" t="n">
-        <v>2615.245038690271</v>
+        <v>2326.641201330837</v>
       </c>
       <c r="Y23" t="n">
-        <v>2225.105706714459</v>
+        <v>1936.501869355026</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K24" t="n">
-        <v>67.20229659631353</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7851413312</v>
+        <v>842.0922403416542</v>
       </c>
       <c r="M24" t="n">
-        <v>919.8763905146336</v>
+        <v>919.8763905146342</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.620657808585</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.042367504971</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P24" t="n">
         <v>2459.30289775485</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.20229659631353</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="C25" t="n">
-        <v>67.20229659631353</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="D25" t="n">
-        <v>67.20229659631353</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="E25" t="n">
-        <v>67.20229659631353</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="F25" t="n">
-        <v>67.20229659631353</v>
+        <v>263.8281276630041</v>
       </c>
       <c r="G25" t="n">
-        <v>67.20229659631353</v>
+        <v>263.8281276630041</v>
       </c>
       <c r="H25" t="n">
-        <v>67.20229659631353</v>
+        <v>108.3903386717513</v>
       </c>
       <c r="I25" t="n">
         <v>67.20229659631353</v>
@@ -6153,46 +6153,46 @@
         <v>153.0971541490671</v>
       </c>
       <c r="L25" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M25" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N25" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O25" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P25" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q25" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R25" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S25" t="n">
-        <v>744.8026024876059</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T25" t="n">
-        <v>744.8026024876059</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U25" t="n">
-        <v>744.8026024876059</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V25" t="n">
-        <v>490.118114281719</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W25" t="n">
-        <v>200.7009442447584</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="X25" t="n">
-        <v>67.20229659631353</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.20229659631353</v>
+        <v>410.7180751609145</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1781.453562418758</v>
+        <v>2028.299232620521</v>
       </c>
       <c r="C26" t="n">
-        <v>1412.491045478347</v>
+        <v>1659.336715680109</v>
       </c>
       <c r="D26" t="n">
-        <v>1412.491045478347</v>
+        <v>1659.336715680109</v>
       </c>
       <c r="E26" t="n">
-        <v>1026.702792880102</v>
+        <v>1273.548463081865</v>
       </c>
       <c r="F26" t="n">
-        <v>615.7168880904949</v>
+        <v>862.5625582922576</v>
       </c>
       <c r="G26" t="n">
-        <v>198.3324414098951</v>
+        <v>445.1781116116578</v>
       </c>
       <c r="H26" t="n">
         <v>198.3324414098951</v>
@@ -6226,13 +6226,13 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821406</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K26" t="n">
         <v>597.6453821726755</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M26" t="n">
         <v>1685.237002375317</v>
@@ -6247,31 +6247,31 @@
         <v>3146.337816775584</v>
       </c>
       <c r="Q26" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R26" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S26" t="n">
-        <v>3178.504162921535</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T26" t="n">
-        <v>3178.504162921535</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U26" t="n">
-        <v>3178.504162921535</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="V26" t="n">
-        <v>3178.504162921535</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="W26" t="n">
-        <v>2825.73550765142</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="X26" t="n">
-        <v>2452.269749390341</v>
+        <v>2805.038404660454</v>
       </c>
       <c r="Y26" t="n">
-        <v>2062.130417414529</v>
+        <v>2414.899072684643</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>67.20229659631353</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7851413312</v>
+        <v>318.7491850275574</v>
       </c>
       <c r="M27" t="n">
-        <v>919.8763905146336</v>
+        <v>919.8763905146342</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.620657808585</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O27" t="n">
-        <v>2065.042367504971</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P27" t="n">
         <v>2459.30289775485</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>818.100561022197</v>
+        <v>733.7694192093401</v>
       </c>
       <c r="C28" t="n">
-        <v>818.100561022197</v>
+        <v>733.7694192093401</v>
       </c>
       <c r="D28" t="n">
-        <v>667.9839216098612</v>
+        <v>733.7694192093401</v>
       </c>
       <c r="E28" t="n">
-        <v>520.0708280274681</v>
+        <v>694.066410669348</v>
       </c>
       <c r="F28" t="n">
-        <v>373.1808805295577</v>
+        <v>547.1764631714376</v>
       </c>
       <c r="G28" t="n">
-        <v>222.6400855875664</v>
+        <v>378.4365444980971</v>
       </c>
       <c r="H28" t="n">
-        <v>67.20229659631353</v>
+        <v>222.9987555068442</v>
       </c>
       <c r="I28" t="n">
-        <v>67.20229659631353</v>
+        <v>94.48519273445557</v>
       </c>
       <c r="J28" t="n">
         <v>67.20229659631353</v>
@@ -6390,46 +6390,46 @@
         <v>153.0971541490671</v>
       </c>
       <c r="L28" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M28" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N28" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O28" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P28" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q28" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R28" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S28" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T28" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U28" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="V28" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="W28" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="X28" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.100561022197</v>
+        <v>733.7694192093401</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1291.344466900191</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="C29" t="n">
-        <v>922.3819499597791</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D29" t="n">
-        <v>564.1162513530287</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E29" t="n">
-        <v>564.1162513530287</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F29" t="n">
-        <v>564.1162513530287</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G29" t="n">
-        <v>146.7318046724289</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H29" t="n">
         <v>67.20229659631353</v>
@@ -6463,52 +6463,52 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821401</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K29" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L29" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M29" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N29" t="n">
         <v>2260.663407417571</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P29" t="n">
         <v>3146.337816775584</v>
       </c>
       <c r="Q29" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S29" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T29" t="n">
         <v>3125.380939814889</v>
       </c>
       <c r="U29" t="n">
-        <v>3125.380939814889</v>
+        <v>2871.665503366678</v>
       </c>
       <c r="V29" t="n">
-        <v>2794.318052471318</v>
+        <v>2540.602616023107</v>
       </c>
       <c r="W29" t="n">
-        <v>2441.549397201204</v>
+        <v>2431.565830965778</v>
       </c>
       <c r="X29" t="n">
-        <v>2068.083638940124</v>
+        <v>2058.100072704699</v>
       </c>
       <c r="Y29" t="n">
-        <v>1677.944306964313</v>
+        <v>1667.960740728887</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J30" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K30" t="n">
-        <v>475.4705993509099</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="L30" t="n">
-        <v>946.0534440857964</v>
+        <v>537.7851413311998</v>
       </c>
       <c r="M30" t="n">
-        <v>1536.622134278618</v>
+        <v>1138.912346818277</v>
       </c>
       <c r="N30" t="n">
-        <v>2169.36640157257</v>
+        <v>1763.475611836948</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.119815656532</v>
+        <v>2275.897321533334</v>
       </c>
       <c r="P30" t="n">
-        <v>2600.763293269883</v>
+        <v>2670.157851783212</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>681.0581600168596</v>
+        <v>335.1645867593485</v>
       </c>
       <c r="C31" t="n">
-        <v>512.1219770889527</v>
+        <v>215.1153901787067</v>
       </c>
       <c r="D31" t="n">
-        <v>362.005337676617</v>
+        <v>215.1153901787067</v>
       </c>
       <c r="E31" t="n">
-        <v>214.0922440942239</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F31" t="n">
         <v>67.20229659631353</v>
@@ -6627,46 +6627,46 @@
         <v>153.0971541490671</v>
       </c>
       <c r="L31" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M31" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N31" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O31" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P31" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q31" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R31" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S31" t="n">
-        <v>954.5619983528705</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="T31" t="n">
-        <v>954.5619983528705</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="U31" t="n">
-        <v>862.7066248470993</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="V31" t="n">
-        <v>862.7066248470993</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="W31" t="n">
-        <v>862.7066248470993</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="X31" t="n">
-        <v>862.7066248470993</v>
+        <v>516.8130515895882</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.7066248470993</v>
+        <v>516.8130515895882</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1180.21876474172</v>
+        <v>1857.141244244549</v>
       </c>
       <c r="C32" t="n">
-        <v>811.2562478013083</v>
+        <v>1488.178727304137</v>
       </c>
       <c r="D32" t="n">
-        <v>452.9905491945578</v>
+        <v>1129.913028697387</v>
       </c>
       <c r="E32" t="n">
-        <v>67.20229659631353</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F32" t="n">
-        <v>67.20229659631353</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G32" t="n">
         <v>67.20229659631353</v>
@@ -6700,16 +6700,16 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L32" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M32" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N32" t="n">
         <v>2260.663407417571</v>
@@ -6721,31 +6721,31 @@
         <v>3146.337816775584</v>
       </c>
       <c r="Q32" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R32" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S32" t="n">
-        <v>3178.504162921535</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T32" t="n">
-        <v>3014.255237656419</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="U32" t="n">
-        <v>3014.255237656419</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="V32" t="n">
-        <v>2683.192350312848</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="W32" t="n">
-        <v>2330.423695042733</v>
+        <v>3007.346174545562</v>
       </c>
       <c r="X32" t="n">
-        <v>1956.957936781653</v>
+        <v>2633.880416284482</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.818604805842</v>
+        <v>2243.74108430867</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K33" t="n">
-        <v>371.5093956067679</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="L33" t="n">
-        <v>741.2211916924464</v>
+        <v>537.7851413311998</v>
       </c>
       <c r="M33" t="n">
-        <v>1342.348397179523</v>
+        <v>1138.912346818277</v>
       </c>
       <c r="N33" t="n">
-        <v>1975.092664473475</v>
+        <v>1763.475611836948</v>
       </c>
       <c r="O33" t="n">
-        <v>2487.514374169861</v>
+        <v>2275.897321533334</v>
       </c>
       <c r="P33" t="n">
         <v>2670.157851783212</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.20229659631353</v>
+        <v>137.2755302897317</v>
       </c>
       <c r="C34" t="n">
         <v>67.20229659631353</v>
@@ -6864,46 +6864,46 @@
         <v>153.0971541490671</v>
       </c>
       <c r="L34" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M34" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N34" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O34" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P34" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q34" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R34" t="n">
-        <v>818.100561022197</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S34" t="n">
-        <v>818.100561022197</v>
+        <v>608.341165156932</v>
       </c>
       <c r="T34" t="n">
-        <v>591.9027768409235</v>
+        <v>608.341165156932</v>
       </c>
       <c r="U34" t="n">
-        <v>302.7433418548547</v>
+        <v>608.341165156932</v>
       </c>
       <c r="V34" t="n">
-        <v>295.1918474943309</v>
+        <v>608.341165156932</v>
       </c>
       <c r="W34" t="n">
-        <v>295.1918474943309</v>
+        <v>318.9239951199714</v>
       </c>
       <c r="X34" t="n">
-        <v>67.20229659631353</v>
+        <v>318.9239951199714</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.20229659631353</v>
+        <v>318.9239951199714</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1591.204669531327</v>
+        <v>1387.327295389762</v>
       </c>
       <c r="C35" t="n">
-        <v>1222.242152590916</v>
+        <v>1316.367933606743</v>
       </c>
       <c r="D35" t="n">
-        <v>863.9764539841653</v>
+        <v>1316.367933606743</v>
       </c>
       <c r="E35" t="n">
-        <v>478.1882013859211</v>
+        <v>930.5796810084983</v>
       </c>
       <c r="F35" t="n">
-        <v>67.20229659631354</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="G35" t="n">
-        <v>67.20229659631354</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H35" t="n">
-        <v>67.20229659631354</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I35" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J35" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L35" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M35" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N35" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O35" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P35" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q35" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R35" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S35" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T35" t="n">
-        <v>3144.016317409102</v>
+        <v>3144.016317409101</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.775384184946</v>
+        <v>2890.30088096089</v>
       </c>
       <c r="V35" t="n">
-        <v>2720.712496841375</v>
+        <v>2890.30088096089</v>
       </c>
       <c r="W35" t="n">
-        <v>2367.943841571261</v>
+        <v>2537.532225690775</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.943841571261</v>
+        <v>2164.066467429695</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.804509595449</v>
+        <v>1773.927135453884</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I36" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631354</v>
+        <v>88.78607915920821</v>
       </c>
       <c r="K36" t="n">
-        <v>371.5093956067679</v>
+        <v>88.78607915920821</v>
       </c>
       <c r="L36" t="n">
-        <v>842.0922403416544</v>
+        <v>318.7491850275574</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.219445828731</v>
+        <v>919.8763905146342</v>
       </c>
       <c r="N36" t="n">
-        <v>2075.963713122683</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O36" t="n">
-        <v>2487.514374169861</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P36" t="n">
-        <v>2670.157851783212</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.20229659631354</v>
+        <v>236.1384795242204</v>
       </c>
       <c r="C37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K37" t="n">
         <v>153.0971541490671</v>
       </c>
       <c r="L37" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M37" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N37" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O37" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P37" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q37" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R37" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S37" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T37" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U37" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="V37" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="W37" t="n">
-        <v>697.6328914681008</v>
+        <v>866.5690743960076</v>
       </c>
       <c r="X37" t="n">
-        <v>469.6433405700834</v>
+        <v>638.5795234979903</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.8507614265532</v>
+        <v>417.7869443544602</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1722.334814344909</v>
+        <v>1731.067530070958</v>
       </c>
       <c r="C38" t="n">
-        <v>1353.372297404497</v>
+        <v>1731.067530070958</v>
       </c>
       <c r="D38" t="n">
-        <v>995.106598797747</v>
+        <v>1372.801831464207</v>
       </c>
       <c r="E38" t="n">
-        <v>609.3183461995027</v>
+        <v>987.0135788659629</v>
       </c>
       <c r="F38" t="n">
-        <v>198.3324414098951</v>
+        <v>576.0276740763554</v>
       </c>
       <c r="G38" t="n">
-        <v>198.3324414098951</v>
+        <v>158.6432273957556</v>
       </c>
       <c r="H38" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I38" t="n">
         <v>67.20229659631353</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821406</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L38" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M38" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N38" t="n">
         <v>2260.663407417571</v>
@@ -7195,31 +7195,31 @@
         <v>3146.337816775584</v>
       </c>
       <c r="Q38" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R38" t="n">
-        <v>3341.479452221465</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S38" t="n">
-        <v>3178.504162921535</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T38" t="n">
-        <v>3178.504162921535</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U38" t="n">
-        <v>3178.504162921535</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="V38" t="n">
         <v>2847.441275577964</v>
       </c>
       <c r="W38" t="n">
-        <v>2494.67262030785</v>
+        <v>2494.672620307849</v>
       </c>
       <c r="X38" t="n">
-        <v>2121.20686204677</v>
+        <v>2121.206862046769</v>
       </c>
       <c r="Y38" t="n">
-        <v>2108.934654409031</v>
+        <v>1731.067530070958</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K39" t="n">
-        <v>371.5093956067679</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="L39" t="n">
-        <v>601.472501475117</v>
+        <v>318.7491850275574</v>
       </c>
       <c r="M39" t="n">
-        <v>1202.599706962194</v>
+        <v>919.8763905146342</v>
       </c>
       <c r="N39" t="n">
-        <v>1835.343974256146</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O39" t="n">
-        <v>2347.765683952532</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P39" t="n">
-        <v>2670.157851783212</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.667760966493</v>
+        <v>438.9470441346361</v>
       </c>
       <c r="C40" t="n">
-        <v>189.667760966493</v>
+        <v>438.9470441346361</v>
       </c>
       <c r="D40" t="n">
-        <v>189.667760966493</v>
+        <v>438.9470441346361</v>
       </c>
       <c r="E40" t="n">
-        <v>189.667760966493</v>
+        <v>291.033950552243</v>
       </c>
       <c r="F40" t="n">
-        <v>67.20229659631353</v>
+        <v>291.033950552243</v>
       </c>
       <c r="G40" t="n">
-        <v>67.20229659631353</v>
+        <v>291.033950552243</v>
       </c>
       <c r="H40" t="n">
-        <v>67.20229659631353</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I40" t="n">
         <v>67.20229659631353</v>
@@ -7338,46 +7338,46 @@
         <v>153.0971541490671</v>
       </c>
       <c r="L40" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M40" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N40" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O40" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P40" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q40" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R40" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S40" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T40" t="n">
-        <v>954.5619983528705</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="U40" t="n">
-        <v>954.5619983528705</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="V40" t="n">
-        <v>699.8775101469837</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="W40" t="n">
-        <v>410.4603401100231</v>
+        <v>438.9470441346361</v>
       </c>
       <c r="X40" t="n">
-        <v>410.4603401100231</v>
+        <v>438.9470441346361</v>
       </c>
       <c r="Y40" t="n">
-        <v>189.667760966493</v>
+        <v>438.9470441346361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1857.14124424455</v>
+        <v>1614.022236486285</v>
       </c>
       <c r="C41" t="n">
-        <v>1488.178727304138</v>
+        <v>1245.059719545874</v>
       </c>
       <c r="D41" t="n">
-        <v>1488.178727304138</v>
+        <v>1245.059719545874</v>
       </c>
       <c r="E41" t="n">
-        <v>1102.390474705894</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4045699162862</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G41" t="n">
-        <v>274.0201232356864</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H41" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I41" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J41" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821401</v>
       </c>
       <c r="K41" t="n">
-        <v>597.645382172676</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M41" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N41" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O41" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q41" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S41" t="n">
-        <v>3360.114829815677</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T41" t="n">
-        <v>3360.114829815677</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="U41" t="n">
-        <v>3360.114829815677</v>
+        <v>2708.690214066748</v>
       </c>
       <c r="V41" t="n">
-        <v>3360.114829815677</v>
+        <v>2377.627326723177</v>
       </c>
       <c r="W41" t="n">
-        <v>3007.346174545563</v>
+        <v>2377.627326723177</v>
       </c>
       <c r="X41" t="n">
-        <v>2633.880416284483</v>
+        <v>2004.161568462097</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.741084308671</v>
+        <v>1614.022236486285</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I42" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K42" t="n">
-        <v>371.5093956067679</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="L42" t="n">
-        <v>842.0922403416544</v>
+        <v>537.7851413311998</v>
       </c>
       <c r="M42" t="n">
-        <v>1443.219445828731</v>
+        <v>919.8763905146342</v>
       </c>
       <c r="N42" t="n">
-        <v>2075.963713122683</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O42" t="n">
-        <v>2487.514374169861</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P42" t="n">
-        <v>2670.157851783212</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.20229659631354</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="C43" t="n">
-        <v>67.20229659631354</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="D43" t="n">
-        <v>67.20229659631354</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="E43" t="n">
-        <v>67.20229659631354</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="F43" t="n">
-        <v>67.20229659631354</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="G43" t="n">
-        <v>67.20229659631354</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="H43" t="n">
-        <v>67.20229659631354</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I43" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J43" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K43" t="n">
         <v>153.0971541490671</v>
       </c>
       <c r="L43" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M43" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N43" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O43" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P43" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q43" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R43" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S43" t="n">
-        <v>954.5619983528705</v>
+        <v>886.70746510946</v>
       </c>
       <c r="T43" t="n">
-        <v>954.5619983528705</v>
+        <v>886.70746510946</v>
       </c>
       <c r="U43" t="n">
-        <v>954.5619983528705</v>
+        <v>886.70746510946</v>
       </c>
       <c r="V43" t="n">
-        <v>699.8775101469837</v>
+        <v>632.0229769035732</v>
       </c>
       <c r="W43" t="n">
-        <v>410.4603401100231</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="X43" t="n">
-        <v>182.4707892120057</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.20229659631354</v>
+        <v>342.6058068666126</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1664.206438446653</v>
+        <v>1916.21768887679</v>
       </c>
       <c r="C44" t="n">
-        <v>1295.243921506241</v>
+        <v>1547.255171936378</v>
       </c>
       <c r="D44" t="n">
-        <v>936.9782228994906</v>
+        <v>1188.989473329628</v>
       </c>
       <c r="E44" t="n">
-        <v>936.9782228994906</v>
+        <v>803.2012207313833</v>
       </c>
       <c r="F44" t="n">
-        <v>936.9782228994906</v>
+        <v>803.2012207313833</v>
       </c>
       <c r="G44" t="n">
-        <v>519.5937762188908</v>
+        <v>385.8167740507835</v>
       </c>
       <c r="H44" t="n">
         <v>198.3324414098951</v>
@@ -7648,52 +7648,52 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J44" t="n">
-        <v>231.1641949821401</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M44" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N44" t="n">
         <v>2260.663407417571</v>
       </c>
       <c r="O44" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P44" t="n">
         <v>3146.337816775584</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R44" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S44" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T44" t="n">
-        <v>3125.380939814889</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="U44" t="n">
-        <v>2871.665503366678</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="V44" t="n">
-        <v>2540.602616023107</v>
+        <v>3029.051942472106</v>
       </c>
       <c r="W44" t="n">
-        <v>2187.833960752993</v>
+        <v>2676.283287201991</v>
       </c>
       <c r="X44" t="n">
-        <v>1814.368202491913</v>
+        <v>2302.817528940911</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.206438446653</v>
+        <v>2302.817528940911</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J45" t="n">
-        <v>67.20229659631353</v>
+        <v>88.78607915920821</v>
       </c>
       <c r="K45" t="n">
-        <v>371.5093956067679</v>
+        <v>88.78607915920821</v>
       </c>
       <c r="L45" t="n">
-        <v>842.0922403416544</v>
+        <v>318.7491850275574</v>
       </c>
       <c r="M45" t="n">
-        <v>1443.219445828731</v>
+        <v>919.8763905146342</v>
       </c>
       <c r="N45" t="n">
-        <v>2075.963713122683</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O45" t="n">
-        <v>2487.514374169861</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P45" t="n">
-        <v>2670.157851783212</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.8321627675645</v>
+        <v>528.683390985236</v>
       </c>
       <c r="C46" t="n">
-        <v>382.8321627675645</v>
+        <v>528.683390985236</v>
       </c>
       <c r="D46" t="n">
-        <v>382.8321627675645</v>
+        <v>378.5667515729002</v>
       </c>
       <c r="E46" t="n">
-        <v>382.8321627675645</v>
+        <v>241.3751402323659</v>
       </c>
       <c r="F46" t="n">
-        <v>235.9422152696541</v>
+        <v>94.48519273445557</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631353</v>
+        <v>94.48519273445557</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631353</v>
+        <v>94.48519273445557</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631353</v>
+        <v>94.48519273445557</v>
       </c>
       <c r="J46" t="n">
         <v>67.20229659631353</v>
@@ -7812,46 +7812,46 @@
         <v>153.0971541490671</v>
       </c>
       <c r="L46" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M46" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N46" t="n">
-        <v>689.2289500417505</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O46" t="n">
-        <v>844.888793464596</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P46" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q46" t="n">
-        <v>954.5619983528705</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R46" t="n">
-        <v>954.5619983528705</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S46" t="n">
-        <v>744.8026024876059</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="T46" t="n">
-        <v>744.8026024876059</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="U46" t="n">
-        <v>455.6431675015371</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="V46" t="n">
-        <v>382.8321627675645</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="W46" t="n">
-        <v>382.8321627675645</v>
+        <v>528.683390985236</v>
       </c>
       <c r="X46" t="n">
-        <v>382.8321627675645</v>
+        <v>528.683390985236</v>
       </c>
       <c r="Y46" t="n">
-        <v>382.8321627675645</v>
+        <v>528.683390985236</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>220.703882581594</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>58.71259413053315</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>204.6914669593173</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>131.7000303676201</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23436,7 +23436,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.0630937653839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>326.2687099210881</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>260.7615551004097</v>
       </c>
     </row>
     <row r="15">
@@ -23706,7 +23706,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>96.25160475629394</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>89.80115265030452</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.162264341708</v>
+        <v>290.2087078019632</v>
       </c>
     </row>
     <row r="18">
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>244.700670860536</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>123.2439850675883</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>75.47001355005823</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>69.96975304398327</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>79.55509278516848</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24265,7 +24265,7 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>42.03445948429641</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>127.2284271446648</v>
+        <v>86.45226548998141</v>
       </c>
       <c r="J25" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R25" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>93.54599421707672</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.8637552176677</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>73.67150796116061</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>107.127984191977</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.01713249403568</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.0100671767606</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
         <v>207.661801906612</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>239.3145084655515</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
         <v>129.8188433654457</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.2945515106579</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.39811648379244</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.0525194866071</v>
@@ -24861,7 +24861,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R31" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S31" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>195.3310208654945</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>149.9333932477048</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>318.0487214609057</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>51.33109127004479</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>97.87431974214387</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25098,7 +25098,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J34" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>244.6616639069094</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>295.0231236058183</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826972</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S35" t="n">
         <v>161.3455364069306</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>159.8597581918153</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25335,7 +25335,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R37" t="n">
         <v>135.0968229573668</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>32.16318252066893</v>
+        <v>199.4100036192971</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>318.0487214609057</v>
+        <v>227.522199969458</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>374.0884530946919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.1802382964536</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8834111013403</v>
+        <v>59.51850082963499</v>
       </c>
       <c r="I40" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R40" t="n">
         <v>135.0968229573668</v>
@@ -25602,13 +25602,13 @@
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>35.93816930770271</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>113.2990730879266</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
         <v>129.8188433654457</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.0525194866071</v>
@@ -25806,10 +25806,10 @@
         <v>153.8834111013403</v>
       </c>
       <c r="I43" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R43" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>207.661801906612</v>
+        <v>140.485813995636</v>
       </c>
       <c r="T43" t="n">
         <v>223.9358063394608</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.4688456625595</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>132.4392321464261</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S44" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.5777922512459</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>10.61426741944024</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
         <v>153.8834111013403</v>
@@ -26046,7 +26046,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J46" t="n">
-        <v>27.0100671767606</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188797</v>
       </c>
       <c r="R46" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>180.0547486371951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679508.6335370307</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370304</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755016.5313493257</v>
+        <v>755016.5313493256</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755016.5313493258</v>
+        <v>755016.5313493256</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755016.5313493256</v>
+        <v>755016.5313493257</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755016.5313493257</v>
+        <v>755016.5313493256</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755016.5313493258</v>
+        <v>755016.5313493257</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755016.5313493257</v>
+        <v>755016.5313493256</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>332525.501518121</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="F2" t="n">
         <v>332525.5015181213</v>
@@ -26331,28 +26331,28 @@
         <v>332525.5015181212</v>
       </c>
       <c r="H2" t="n">
-        <v>332525.5015181211</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="I2" t="n">
         <v>369476.1749156273</v>
       </c>
       <c r="J2" t="n">
-        <v>369476.1749156273</v>
+        <v>369476.1749156272</v>
       </c>
       <c r="K2" t="n">
-        <v>369476.1749156271</v>
+        <v>369476.1749156272</v>
       </c>
       <c r="L2" t="n">
         <v>369476.1749156273</v>
       </c>
       <c r="M2" t="n">
+        <v>369476.1749156272</v>
+      </c>
+      <c r="N2" t="n">
         <v>369476.1749156273</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>369476.1749156272</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369476.1749156273</v>
       </c>
       <c r="P2" t="n">
         <v>369476.1749156273</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033441</v>
+        <v>151472.585603344</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26420,7 +26420,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26438,16 +26438,16 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>596.633009130823</v>
+        <v>596.6330091308229</v>
       </c>
       <c r="J4" t="n">
         <v>596.633009130823</v>
       </c>
       <c r="K4" t="n">
-        <v>596.633009130823</v>
+        <v>596.6330091308229</v>
       </c>
       <c r="L4" t="n">
-        <v>596.633009130823</v>
+        <v>596.6330091308229</v>
       </c>
       <c r="M4" t="n">
         <v>596.633009130823</v>
@@ -26456,7 +26456,7 @@
         <v>596.633009130823</v>
       </c>
       <c r="O4" t="n">
-        <v>596.633009130823</v>
+        <v>596.6330091308229</v>
       </c>
       <c r="P4" t="n">
         <v>596.633009130823</v>
@@ -26502,13 +26502,13 @@
         <v>62418.87211854677</v>
       </c>
       <c r="M5" t="n">
-        <v>62418.87211854678</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="N5" t="n">
         <v>62418.87211854677</v>
       </c>
       <c r="O5" t="n">
-        <v>62418.87211854678</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="P5" t="n">
         <v>62418.87211854677</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866102</v>
+        <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
-        <v>250180.8004279349</v>
+        <v>250180.8004279344</v>
       </c>
       <c r="D6" t="n">
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>276712.5012098327</v>
+        <v>282174.0735810701</v>
       </c>
       <c r="F6" t="n">
-        <v>276712.501209833</v>
+        <v>282174.0735810703</v>
       </c>
       <c r="G6" t="n">
-        <v>276712.5012098329</v>
+        <v>282174.0735810702</v>
       </c>
       <c r="H6" t="n">
-        <v>276712.5012098328</v>
+        <v>282174.0735810702</v>
       </c>
       <c r="I6" t="n">
-        <v>150526.2214560693</v>
+        <v>154541.8979117521</v>
       </c>
       <c r="J6" t="n">
-        <v>125575.5878668204</v>
+        <v>129591.264322503</v>
       </c>
       <c r="K6" t="n">
-        <v>301998.8070594132</v>
+        <v>306014.483515096</v>
       </c>
       <c r="L6" t="n">
-        <v>301998.8070594133</v>
+        <v>306014.483515096</v>
       </c>
       <c r="M6" t="n">
-        <v>301998.8070594133</v>
+        <v>306014.4835150959</v>
       </c>
       <c r="N6" t="n">
-        <v>301998.8070594133</v>
+        <v>306014.483515096</v>
       </c>
       <c r="O6" t="n">
-        <v>301998.8070594134</v>
+        <v>306014.483515096</v>
       </c>
       <c r="P6" t="n">
-        <v>301998.8070594134</v>
+        <v>306014.4835150961</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170865</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26752,34 +26752,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
       <c r="J3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
       <c r="L3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
       <c r="M3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
       <c r="N3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
       <c r="P3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086463</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="J4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="K4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="L4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="M4" t="n">
-        <v>840.0287074539193</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="N4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="O4" t="n">
-        <v>840.0287074539193</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539191</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.271635936408258e-14</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.6749919915598</v>
+        <v>142.6749919915596</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993636</v>
+        <v>165.7414346993635</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>339.7905565133891</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8648845296926</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>283.3558084808872</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.16508256759795</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>125.3564241629037</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401878</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>124.2722163904643</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>190.7623767421588</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538051894</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
-        <v>190.1500580638413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31858,7 +31858,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>35.71704454957967</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
@@ -32086,7 +32086,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576417</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32098,7 +32098,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034983</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>87.78329382423973</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32551,10 +32551,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32572,7 +32572,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034983</v>
@@ -32703,43 +32703,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H23" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I23" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J23" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K23" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L23" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M23" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N23" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O23" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P23" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R23" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S23" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T23" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U23" t="n">
         <v>0.1673708241073032</v>
@@ -32782,22 +32782,22 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H24" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I24" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L24" t="n">
-        <v>243.0502412793306</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M24" t="n">
-        <v>62.37972692296148</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>291.1349612690238</v>
@@ -32806,22 +32806,22 @@
         <v>266.3316117297211</v>
       </c>
       <c r="P24" t="n">
-        <v>213.7545986227552</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q24" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R24" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S24" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T24" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H25" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I25" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J25" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K25" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L25" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M25" t="n">
         <v>147.1078506394375</v>
@@ -32888,7 +32888,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R25" t="n">
         <v>42.19656841980269</v>
@@ -32897,7 +32897,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T25" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U25" t="n">
         <v>0.05118872028281773</v>
@@ -32940,43 +32940,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H26" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I26" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J26" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K26" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L26" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M26" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N26" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O26" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P26" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R26" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S26" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T26" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U26" t="n">
         <v>0.1673708241073032</v>
@@ -33019,10 +33019,10 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H27" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I27" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -33031,10 +33031,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>243.0502412793306</v>
+        <v>21.80180056858049</v>
       </c>
       <c r="M27" t="n">
-        <v>62.37972692296148</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N27" t="n">
         <v>291.1349612690238</v>
@@ -33043,22 +33043,22 @@
         <v>266.3316117297211</v>
       </c>
       <c r="P27" t="n">
-        <v>213.7545986227552</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q27" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R27" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S27" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T27" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H28" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I28" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J28" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K28" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L28" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M28" t="n">
         <v>147.1078506394375</v>
@@ -33125,7 +33125,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R28" t="n">
         <v>42.19656841980269</v>
@@ -33134,7 +33134,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T28" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U28" t="n">
         <v>0.05118872028281773</v>
@@ -33177,43 +33177,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H29" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I29" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J29" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K29" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L29" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M29" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N29" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O29" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R29" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S29" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T29" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U29" t="n">
         <v>0.1673708241073032</v>
@@ -33256,46 +33256,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H30" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I30" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J30" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>180.7571100531485</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>243.0502412793306</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M30" t="n">
-        <v>272.9630006698182</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N30" t="n">
-        <v>291.1349612690238</v>
+        <v>282.8713226071245</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S30" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T30" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H31" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I31" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J31" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K31" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L31" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M31" t="n">
         <v>147.1078506394375</v>
@@ -33362,7 +33362,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R31" t="n">
         <v>42.19656841980269</v>
@@ -33371,7 +33371,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T31" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U31" t="n">
         <v>0.05118872028281773</v>
@@ -33414,43 +33414,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H32" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I32" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J32" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K32" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L32" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M32" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N32" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O32" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R32" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S32" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T32" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U32" t="n">
         <v>0.1673708241073032</v>
@@ -33493,46 +33493,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H33" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I33" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>180.7571100531485</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>141.1602931488175</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M33" t="n">
-        <v>283.6281676337123</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N33" t="n">
-        <v>291.1349612690238</v>
+        <v>282.8713226071245</v>
       </c>
       <c r="O33" t="n">
         <v>266.3316117297211</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S33" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T33" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H34" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I34" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J34" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K34" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L34" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M34" t="n">
         <v>147.1078506394375</v>
@@ -33599,7 +33599,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R34" t="n">
         <v>42.19656841980269</v>
@@ -33608,7 +33608,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T34" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U34" t="n">
         <v>0.05118872028281773</v>
@@ -33651,43 +33651,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H35" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I35" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J35" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K35" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L35" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M35" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N35" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O35" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q35" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R35" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S35" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T35" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U35" t="n">
         <v>0.1673708241073032</v>
@@ -33730,46 +33730,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H36" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I36" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>22.54839189483835</v>
       </c>
       <c r="K36" t="n">
-        <v>180.7571100531485</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>243.0502412793306</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>283.6281676337123</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N36" t="n">
         <v>291.1349612690238</v>
       </c>
       <c r="O36" t="n">
-        <v>164.4416635992083</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R36" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S36" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T36" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H37" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I37" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J37" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K37" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L37" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M37" t="n">
         <v>147.1078506394375</v>
@@ -33836,7 +33836,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R37" t="n">
         <v>42.19656841980269</v>
@@ -33845,7 +33845,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T37" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U37" t="n">
         <v>0.05118872028281773</v>
@@ -33888,43 +33888,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H38" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J38" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K38" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L38" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M38" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N38" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O38" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q38" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R38" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U38" t="n">
         <v>0.1673708241073032</v>
@@ -33967,22 +33967,22 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H39" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I39" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>180.7571100531485</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>21.80180056858049</v>
       </c>
       <c r="M39" t="n">
-        <v>283.6281676337123</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N39" t="n">
         <v>291.1349612690238</v>
@@ -33991,22 +33991,22 @@
         <v>266.3316117297211</v>
       </c>
       <c r="P39" t="n">
-        <v>141.1602931488179</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R39" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S39" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T39" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H40" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I40" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K40" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L40" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M40" t="n">
         <v>147.1078506394375</v>
@@ -34073,7 +34073,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R40" t="n">
         <v>42.19656841980269</v>
@@ -34082,7 +34082,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U40" t="n">
         <v>0.05118872028281773</v>
@@ -34125,43 +34125,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H41" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I41" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J41" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K41" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L41" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M41" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N41" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O41" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R41" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S41" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T41" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U41" t="n">
         <v>0.1673708241073032</v>
@@ -34204,46 +34204,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H42" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I42" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>180.7571100531485</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>243.0502412793306</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M42" t="n">
-        <v>283.6281676337123</v>
+        <v>62.37972692296222</v>
       </c>
       <c r="N42" t="n">
         <v>291.1349612690238</v>
       </c>
       <c r="O42" t="n">
-        <v>164.4416635992083</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R42" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S42" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T42" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H43" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I43" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J43" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K43" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L43" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M43" t="n">
         <v>147.1078506394375</v>
@@ -34310,7 +34310,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R43" t="n">
         <v>42.19656841980269</v>
@@ -34319,7 +34319,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T43" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U43" t="n">
         <v>0.05118872028281773</v>
@@ -34362,43 +34362,43 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H44" t="n">
-        <v>21.4260806548615</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I44" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496017</v>
       </c>
       <c r="J44" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K44" t="n">
-        <v>266.1274558379924</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L44" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M44" t="n">
-        <v>367.3606527316442</v>
+        <v>367.3606527316441</v>
       </c>
       <c r="N44" t="n">
-        <v>373.3049321565802</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O44" t="n">
-        <v>352.5012617538677</v>
+        <v>352.5012617538676</v>
       </c>
       <c r="P44" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.9270760227195</v>
+        <v>225.9270760227194</v>
       </c>
       <c r="R44" t="n">
-        <v>131.42009412288</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S44" t="n">
-        <v>47.67453317931471</v>
+        <v>47.6745331793147</v>
       </c>
       <c r="T44" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621503</v>
       </c>
       <c r="U44" t="n">
         <v>0.1673708241073032</v>
@@ -34441,46 +34441,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H45" t="n">
-        <v>10.81096114124</v>
+        <v>10.81096114123999</v>
       </c>
       <c r="I45" t="n">
-        <v>38.54043821922524</v>
+        <v>38.54043821922523</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>22.54839189483835</v>
       </c>
       <c r="K45" t="n">
-        <v>180.7571100531485</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>243.0502412793306</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>283.6281676337123</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N45" t="n">
         <v>291.1349612690238</v>
       </c>
       <c r="O45" t="n">
-        <v>164.4416635992083</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R45" t="n">
-        <v>69.50043865367549</v>
+        <v>69.50043865367547</v>
       </c>
       <c r="S45" t="n">
         <v>20.79219819852468</v>
       </c>
       <c r="T45" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129677</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348771</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516572</v>
       </c>
       <c r="H46" t="n">
-        <v>8.343761406099288</v>
+        <v>8.343761406099286</v>
       </c>
       <c r="I46" t="n">
-        <v>28.22204778259349</v>
+        <v>28.22204778259348</v>
       </c>
       <c r="J46" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991216</v>
       </c>
       <c r="K46" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L46" t="n">
-        <v>139.5233885842001</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M46" t="n">
         <v>147.1078506394375</v>
@@ -34547,7 +34547,7 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750559</v>
       </c>
       <c r="R46" t="n">
         <v>42.19656841980269</v>
@@ -34556,7 +34556,7 @@
         <v>16.35479613036024</v>
       </c>
       <c r="T46" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820716</v>
       </c>
       <c r="U46" t="n">
         <v>0.05118872028281773</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
-        <v>513.7210878918229</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35734,7 +35734,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338903</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K23" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L23" t="n">
         <v>512.0494411468792</v>
@@ -36369,16 +36369,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N23" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O23" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P23" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3362068029156</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M24" t="n">
-        <v>385.9507567509431</v>
+        <v>78.5698486595757</v>
       </c>
       <c r="N24" t="n">
-        <v>639.1356235292441</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O24" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P24" t="n">
-        <v>398.2429598483621</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.9848020488507</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L25" t="n">
         <v>167.1134138445162</v>
@@ -36530,7 +36530,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O25" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P25" t="n">
         <v>110.7810150386612</v>
@@ -36597,7 +36597,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K26" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L26" t="n">
         <v>512.0494411468792</v>
@@ -36606,16 +36606,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N26" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O26" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P26" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>475.3362068029156</v>
+        <v>254.0877660921655</v>
       </c>
       <c r="M27" t="n">
-        <v>385.9507567509431</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N27" t="n">
-        <v>639.1356235292441</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O27" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P27" t="n">
-        <v>398.2429598483621</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q27" t="n">
-        <v>212.9848020488507</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L28" t="n">
         <v>167.1134138445162</v>
@@ -36767,7 +36767,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O28" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P28" t="n">
         <v>110.7810150386612</v>
@@ -36834,7 +36834,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K29" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L29" t="n">
         <v>512.0494411468792</v>
@@ -36843,16 +36843,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N29" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O29" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P29" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>307.380908091368</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>475.3362068029156</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
-        <v>596.5340304977998</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N30" t="n">
-        <v>639.1356235292441</v>
+        <v>630.8719848673447</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L31" t="n">
         <v>167.1134138445162</v>
@@ -37004,7 +37004,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O31" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P31" t="n">
         <v>110.7810150386612</v>
@@ -37071,7 +37071,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K32" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L32" t="n">
         <v>512.0494411468792</v>
@@ -37080,16 +37080,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N32" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O32" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P32" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>307.380908091368</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>373.4462586724025</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M33" t="n">
-        <v>607.1991974616939</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>639.1356235292441</v>
+        <v>630.8719848673447</v>
       </c>
       <c r="O33" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L34" t="n">
         <v>167.1134138445162</v>
@@ -37241,7 +37241,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O34" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P34" t="n">
         <v>110.7810150386612</v>
@@ -37308,7 +37308,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K35" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L35" t="n">
         <v>512.0494411468792</v>
@@ -37317,16 +37317,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N35" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O35" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P35" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>21.80180056858049</v>
       </c>
       <c r="K36" t="n">
-        <v>307.380908091368</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>475.3362068029156</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>607.1991974616939</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>639.1356235292441</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O36" t="n">
-        <v>415.7077384314934</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L37" t="n">
         <v>167.1134138445162</v>
@@ -37478,7 +37478,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O37" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P37" t="n">
         <v>110.7810150386612</v>
@@ -37545,7 +37545,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K38" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L38" t="n">
         <v>512.0494411468792</v>
@@ -37554,16 +37554,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N38" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O38" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P38" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q38" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>307.380908091368</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>254.0877660921655</v>
       </c>
       <c r="M39" t="n">
-        <v>607.1991974616939</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N39" t="n">
-        <v>639.1356235292441</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O39" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P39" t="n">
-        <v>325.6486543744248</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L40" t="n">
         <v>167.1134138445162</v>
@@ -37715,7 +37715,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O40" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P40" t="n">
         <v>110.7810150386612</v>
@@ -37782,7 +37782,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K41" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L41" t="n">
         <v>512.0494411468792</v>
@@ -37791,16 +37791,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N41" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O41" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P41" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q41" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>307.380908091368</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>475.3362068029156</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
-        <v>607.1991974616939</v>
+        <v>385.9507567509438</v>
       </c>
       <c r="N42" t="n">
-        <v>639.1356235292441</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O42" t="n">
-        <v>415.7077384314934</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L43" t="n">
         <v>167.1134138445162</v>
@@ -37952,7 +37952,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O43" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P43" t="n">
         <v>110.7810150386612</v>
@@ -38019,7 +38019,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K44" t="n">
-        <v>370.1830173641766</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L44" t="n">
         <v>512.0494411468792</v>
@@ -38028,16 +38028,16 @@
         <v>586.5279529972039</v>
       </c>
       <c r="N44" t="n">
-        <v>581.2387929719735</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O44" t="n">
         <v>503.2032315949263</v>
       </c>
       <c r="P44" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081746</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>21.80180056858049</v>
       </c>
       <c r="K45" t="n">
-        <v>307.380908091368</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>475.3362068029156</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>607.1991974616939</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
-        <v>639.1356235292441</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O45" t="n">
-        <v>415.7077384314934</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.76248237651878</v>
+        <v>86.76248237651875</v>
       </c>
       <c r="L46" t="n">
         <v>167.1134138445162</v>
@@ -38189,7 +38189,7 @@
         <v>187.7421271326737</v>
       </c>
       <c r="O46" t="n">
-        <v>157.2321650735813</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P46" t="n">
         <v>110.7810150386612</v>
